--- a/biology/Histoire de la zoologie et de la botanique/Dru_Drury/Dru_Drury.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Dru_Drury/Dru_Drury.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Dru ou Drew Drury, né le 4 février 1725 à Wood Lane à Londres et mort le 15 janvier 1804 dans cette même ville, est un orfèvre et entomologiste amateur britannique.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il est le fils d’un orfèvre prospère, Dru Drury (1688-???) et de Mary Hesketh. Il reprend tout d’abord, en 1748, la boutique de son père et l’abandonne complètement en 1789 pour se consacrer à ses passions, principalement l’entomologie, mais aussi le jardinage, la pêche à la ligne et à la fabrication de vin.
 Sa collection était riche de près de onze mille espèces différentes dont plus de deux mille de Grande-Bretagne. À son époque, on estimait que le nombre total des espèces était de vingt mille. Il dépense plus de 4 000 livres sterling de son époque pour constituer sa collection. Il achète des collections entières, notamment celle de Margaret Cavendish Bentinck, duchesse de Portland (1715-1785) (femme du deuxième duc de Portland), et qui était très réputée.
